--- a/public/Test Herbal Essences en-us.xlsx
+++ b/public/Test Herbal Essences en-us.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1644118163" val="1042" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1644118163" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1644118163" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1644118163"/>
+      <pm:revision xmlns:pm="smNativeData" day="1644772818" val="1042" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1644772818" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1644772818" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1644772818"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="203">
   <si>
     <t>Title</t>
   </si>
@@ -34,6 +34,9 @@
     <t>SKU</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>mpId</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/argan-oil/argan-oil-aloe-sulfate-hair-shampoo/</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>Argan Oil &amp; Aloe Vera Sulfate-Free Conditioner</t>
@@ -650,7 +656,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -665,7 +671,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -680,23 +686,23 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -713,7 +719,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -730,7 +736,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -747,7 +753,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -764,7 +770,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -781,7 +787,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -798,7 +804,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -815,7 +821,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -832,7 +838,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -849,7 +855,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -866,7 +872,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -883,7 +889,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -900,7 +906,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -917,7 +923,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -934,7 +940,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -951,7 +957,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -968,7 +974,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -985,7 +991,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1002,7 +1008,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1019,7 +1025,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1036,7 +1042,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1053,7 +1059,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1070,7 +1076,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1087,7 +1093,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1104,7 +1110,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1121,7 +1127,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1138,7 +1144,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1155,7 +1161,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1172,7 +1178,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1189,7 +1195,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1206,7 +1212,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1223,7 +1229,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1240,7 +1246,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1257,7 +1263,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1274,7 +1280,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1291,7 +1297,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1308,7 +1314,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1325,7 +1331,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1342,7 +1348,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1359,7 +1365,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1376,7 +1382,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1393,7 +1399,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1410,7 +1416,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1427,7 +1433,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1444,7 +1450,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1461,7 +1467,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1478,7 +1484,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1495,7 +1501,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1512,7 +1518,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1529,7 +1535,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1546,7 +1552,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1563,7 +1569,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1580,7 +1586,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1597,7 +1603,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1614,7 +1620,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1631,7 +1637,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1648,7 +1654,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1665,7 +1671,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1682,7 +1688,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1699,7 +1705,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1716,7 +1722,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1733,7 +1739,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1750,7 +1756,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1767,7 +1773,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1784,7 +1790,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1801,7 +1807,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1818,7 +1824,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1835,7 +1841,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1852,7 +1858,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1869,7 +1875,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1886,7 +1892,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1903,7 +1909,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1920,7 +1926,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1937,7 +1943,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1954,7 +1960,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1971,7 +1977,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1988,7 +1994,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2005,7 +2011,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2022,7 +2028,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2039,7 +2045,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2056,7 +2062,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2073,7 +2079,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2090,7 +2096,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2107,7 +2113,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2124,7 +2130,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2141,7 +2147,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2158,7 +2164,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2175,7 +2181,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2192,7 +2198,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2209,7 +2215,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2226,7 +2232,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2243,7 +2249,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2260,7 +2266,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2277,7 +2283,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2294,7 +2300,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2311,7 +2317,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2328,7 +2334,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2345,7 +2351,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644118163" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2379,7 +2385,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1644118163"/>
+          <pm:border xmlns:pm="smNativeData" id="1644772818"/>
         </ext>
       </extLst>
     </border>
@@ -2699,7 +2705,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1644118163" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1644772818" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -2966,10 +2972,10 @@
   <sheetPr>
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="13" defaultColWidth="14.432432" defaultRowHeight="15.75" customHeight="1"/>
@@ -2978,7 +2984,7 @@
     <col min="2" max="2" width="118.567568" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2994,1476 +3000,1773 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>779532</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>779531</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>462741</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>462742</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>462732</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>462734</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>1032330</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>462738</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>462739</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>462740</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>462730</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>462743</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>462708</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>794194</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <v>794188</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="n">
         <v>776662</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="n">
         <v>794186</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="n">
         <v>865025</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <v>389135</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="n">
         <v>389123</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="n">
         <v>462744</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="n">
         <v>462745</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="n">
         <v>865017</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="n">
         <v>776663</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="n">
         <v>462729</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="n">
         <v>462727</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="n">
         <v>389101</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="n">
         <v>389092</v>
       </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="n">
         <v>462724</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="n">
         <v>462719</v>
       </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="n">
         <v>434024</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="n">
         <v>776664</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="n">
         <v>462728</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="n">
         <v>389073</v>
       </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="n">
         <v>389065</v>
       </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="n">
         <v>1023721</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2" t="n">
         <v>776643</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="n">
         <v>395908</v>
       </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2" t="n">
         <v>389038</v>
       </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2" t="n">
         <v>389086</v>
       </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="n">
         <v>389081</v>
       </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2" t="n">
         <v>462715</v>
       </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="n">
         <v>462691</v>
       </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="n">
         <v>462671</v>
       </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="n">
         <v>389119</v>
       </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2" t="n">
         <v>389108</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2" t="n">
         <v>776650</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2" t="n">
         <v>389030</v>
       </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2" t="n">
         <v>389023</v>
       </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2" t="n">
         <v>389048</v>
       </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="n">
         <v>389062</v>
       </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2" t="n">
         <v>389059</v>
       </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="56" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="n">
         <v>462704</v>
       </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2" t="n">
         <v>462677</v>
       </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2" t="n">
         <v>462721</v>
       </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="2" t="n">
         <v>462720</v>
       </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B58" s="60" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2" t="n">
         <v>462711</v>
       </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="2" t="n">
         <v>462696</v>
       </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2" t="n">
         <v>462700</v>
       </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61" s="63" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="2" t="n">
         <v>389012</v>
       </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B62" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2" t="n">
         <v>389051</v>
       </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="2" t="n">
         <v>1023722</v>
       </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B64" s="66" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="2" t="n">
         <v>794169</v>
       </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B65" s="67" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="2" t="n">
         <v>462736</v>
       </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B66" s="68" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="2" t="n">
         <v>794198</v>
       </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B67" s="69" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="2" t="n">
         <v>794190</v>
       </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B68" s="70" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="2" t="n">
         <v>865027</v>
       </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B69" s="71" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="2" t="n">
         <v>865028</v>
       </c>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B70" s="72" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="2" t="n">
         <v>462757</v>
       </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B71" s="73" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="2" t="n">
         <v>467893</v>
       </c>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B72" s="74" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="D72" s="2" t="n">
+      <c r="D72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="2" t="n">
         <v>462803</v>
       </c>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B73" s="75" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="D73" s="2" t="n">
+      <c r="D73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="2" t="n">
         <v>462758</v>
       </c>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B74" s="76" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="D74" s="2" t="n">
+      <c r="D74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="2" t="n">
         <v>462810</v>
       </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B75" s="77" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="2" t="n">
         <v>462819</v>
       </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B76" s="78" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="2" t="n">
         <v>462833</v>
       </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B77" s="79" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="2" t="n">
         <v>462685</v>
       </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B78" s="80" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="2" t="n">
         <v>776608</v>
       </c>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B79" s="81" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="2" t="n">
         <v>776618</v>
       </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B80" s="82" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="2" t="n">
         <v>776633</v>
       </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B81" s="83" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="2" t="n">
         <v>794183</v>
       </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B82" s="84" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="2" t="n">
         <v>794182</v>
       </c>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B83" s="85" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="2" t="n">
         <v>776626</v>
       </c>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B84" s="86" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="2" t="n">
         <v>776665</v>
       </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B85" s="87" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2" t="n">
         <v>389431</v>
       </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B86" s="88" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="2" t="n">
         <v>776606</v>
       </c>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B87" s="89" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="D87" s="2" t="n">
+      <c r="D87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="2" t="n">
         <v>776590</v>
       </c>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B88" s="90" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="2" t="n">
         <v>776669</v>
       </c>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B89" s="91" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="D89" s="2" t="n">
+      <c r="D89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="2" t="n">
         <v>776644</v>
       </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B90" s="92" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="2" t="n">
         <v>389423</v>
       </c>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B91" s="93" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="D91" s="2" t="n">
+      <c r="D91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="2" t="n">
         <v>776592</v>
       </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B92" s="94" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="2" t="n">
         <v>776671</v>
       </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B93" s="95" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="D93" s="2" t="n">
+      <c r="D93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="2" t="n">
         <v>776670</v>
       </c>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B94" s="96" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="2" t="n">
         <v>794202</v>
       </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B95" s="97" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="2" t="n">
         <v>794201</v>
       </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B96" s="98" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="2" t="n">
         <v>1023727</v>
       </c>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B97" s="99" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="2" t="n">
         <v>794181</v>
       </c>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B98" s="100" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="D98" s="2" t="n">
+      <c r="D98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="2" t="n">
         <v>794200</v>
       </c>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B99" s="101" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="2" t="n">
         <v>794177</v>
       </c>
-      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4569,7 +4872,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1644118163" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1644772818" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4578,14 +4881,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1644118163" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1644118163" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1644772818" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1644772818" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1644118163" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1644772818" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/public/Test Herbal Essences en-us.xlsx
+++ b/public/Test Herbal Essences en-us.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1644772818" val="1042" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1644772818" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1644772818" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1644772818"/>
+      <pm:revision xmlns:pm="smNativeData" day="1644794308" val="1042" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1644794308" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1644794308" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1644794308"/>
     </ext>
   </extLst>
 </workbook>
@@ -28,7 +28,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>URL</t>
+    <t>url</t>
   </si>
   <si>
     <t>SKU</t>
@@ -656,7 +656,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -671,7 +671,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -686,23 +686,23 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -719,7 +719,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -736,7 +736,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -753,7 +753,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -770,7 +770,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -787,7 +787,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -804,7 +804,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -821,7 +821,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -838,7 +838,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -855,7 +855,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -872,7 +872,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -889,7 +889,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -906,7 +906,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -923,7 +923,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -940,7 +940,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -957,7 +957,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -974,7 +974,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -991,7 +991,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1008,7 +1008,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1025,7 +1025,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1042,7 +1042,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1059,7 +1059,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1076,7 +1076,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1093,7 +1093,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1110,7 +1110,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1127,7 +1127,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1144,7 +1144,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1161,7 +1161,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1178,7 +1178,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1195,7 +1195,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1212,7 +1212,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1229,7 +1229,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1246,7 +1246,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1263,7 +1263,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1280,7 +1280,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1297,7 +1297,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1314,7 +1314,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1331,7 +1331,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1348,7 +1348,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1365,7 +1365,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1382,7 +1382,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1399,7 +1399,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1416,7 +1416,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1433,7 +1433,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1450,7 +1450,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1467,7 +1467,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1484,7 +1484,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1501,7 +1501,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1518,7 +1518,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1535,7 +1535,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1552,7 +1552,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1569,7 +1569,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1586,7 +1586,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1603,7 +1603,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1620,7 +1620,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1637,7 +1637,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1654,7 +1654,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1671,7 +1671,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1688,7 +1688,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1705,7 +1705,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1722,7 +1722,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1739,7 +1739,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1756,7 +1756,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1773,7 +1773,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1790,7 +1790,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1807,7 +1807,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1824,7 +1824,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1841,7 +1841,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1858,7 +1858,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1875,7 +1875,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1892,7 +1892,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1909,7 +1909,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1926,7 +1926,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1943,7 +1943,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1960,7 +1960,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1977,7 +1977,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1994,7 +1994,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2011,7 +2011,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2028,7 +2028,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2045,7 +2045,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2062,7 +2062,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2079,7 +2079,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2096,7 +2096,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2113,7 +2113,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2130,7 +2130,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2147,7 +2147,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2164,7 +2164,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2181,7 +2181,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2198,7 +2198,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2215,7 +2215,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2232,7 +2232,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2249,7 +2249,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2266,7 +2266,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2283,7 +2283,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2300,7 +2300,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2317,7 +2317,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2334,7 +2334,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2351,7 +2351,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644772818" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2361,15 +2361,26 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1644794308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -2385,7 +2396,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1644772818"/>
+          <pm:border xmlns:pm="smNativeData" id="1644794308"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1644794308"/>
         </ext>
       </extLst>
     </border>
@@ -2705,7 +2735,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1644772818" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1644794308" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -2974,8 +3004,8 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="13" defaultColWidth="14.432432" defaultRowHeight="15.75" customHeight="1"/>
@@ -4872,7 +4902,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1644772818" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1644794308" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4881,14 +4911,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1644772818" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1644772818" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1644794308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1644794308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1644772818" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1644794308" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/public/Test Herbal Essences en-us.xlsx
+++ b/public/Test Herbal Essences en-us.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1644794308" val="1042" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1644794308" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1644794308" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1644794308"/>
+      <pm:revision xmlns:pm="smNativeData" day="1644804330" val="1042" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1644804330" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1644804330" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1644804330"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="301">
   <si>
     <t>Title</t>
   </si>
@@ -31,7 +31,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>SKU</t>
+    <t>scSku</t>
   </si>
   <si>
     <t>type</t>
@@ -49,6 +49,9 @@
     <t>https://herbalessences.com/en-us/our-products/argan-oil/argan-oil-aloe-sulfate-hair-shampoo/</t>
   </si>
   <si>
+    <t>'190679006097</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
@@ -58,580 +61,871 @@
     <t>https://herbalessences.com/en-us/our-products/argan-oil/argan-oil-aloe-sulfate-hair-conditioner/</t>
   </si>
   <si>
+    <t>'190679006011</t>
+  </si>
+  <si>
     <t>Bamboo + Potent Aloe Sulfate Free Shampoo for Hair Strengthening</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/aloe/bamboo-potent-aloe-sulfate-free-shampoo/</t>
   </si>
   <si>
+    <t>'190679004505</t>
+  </si>
+  <si>
     <t>Bamboo + Potent Aloe Sulfate Free Conditioner for Hair Strengthening</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/aloe/bamboo-potent-aloe-sulfate-free-conditioner/</t>
   </si>
   <si>
+    <t>'190679004512</t>
+  </si>
+  <si>
     <t>Hemp + Potent Aloe Vera Sulfate Free Shampoo for Frizz Control</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/aloe/hemp-potent-aloe-sulfate-free-shampoo/</t>
   </si>
   <si>
+    <t>'190679004468</t>
+  </si>
+  <si>
     <t>Hemp + Potent Aloe Vera Sulfate Free Conditioner for Frizz Control</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/aloe/hemp-potent-aloe-sulfate-free-conditioner/</t>
   </si>
   <si>
+    <t>'190679004475</t>
+  </si>
+  <si>
     <t>Hemp + Aloe Vera Sulfate Free Shampoo and Conditioner Bundle Pack</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/aloe/hemp-potent-aloe-sulfate-free-shampoo-conditioner/</t>
   </si>
   <si>
+    <t>'190679007872</t>
+  </si>
+  <si>
     <t>Hemp Seed Oil &amp; Aloe Vera Lightweight Hair Oil Mist</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/aloe/hemp-seed-aloe-oil-mist/</t>
   </si>
   <si>
+    <t>'190679004550</t>
+  </si>
+  <si>
     <t>Eucalyptus + Potent Aloe Vera Sulfate Free Shampoo for Hair &amp; Scalp Balance</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/aloe/eucalyptus-potent-aloe-sulfate-free-shampoo/</t>
   </si>
   <si>
+    <t>'190679004529</t>
+  </si>
+  <si>
     <t>Eucalyptus + Potent Aloe Vera Sulfate Free Conditioner for Hair &amp; Scalp Balance</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/aloe/eucalyptus-potent-aloe-sulfate-free-conditioner/</t>
   </si>
   <si>
+    <t>'190679004536</t>
+  </si>
+  <si>
     <t>Mango + Potent Aloe Vera Sulfate Free Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/aloe/mango-potent-aloe-sulfate-free-shampoo/</t>
   </si>
   <si>
+    <t>'190679004482</t>
+  </si>
+  <si>
     <t>Mango + Potent Aloe Vera Sulfate Free Hair Conditioner for Curly Hair</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/aloe/mango-potent-aloe-sulfate-free-conditioner/</t>
   </si>
   <si>
+    <t>'190679004499</t>
+  </si>
+  <si>
     <t>Curl Defining Cream with Mango &amp; Aloe</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/aloe/mango-aloe-cream/</t>
   </si>
   <si>
+    <t>'190679004604</t>
+  </si>
+  <si>
     <t>Birch Bark Extract Sulfate-free Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/birch-bark-extract/birch-bark-extract-sulfate-free-shampoo/</t>
   </si>
   <si>
+    <t>'0190679007087</t>
+  </si>
+  <si>
     <t>Birch Bark Extract Sulfate-free Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/birch-bark-extract/birch-bark-extract-sulfate-free-conditioner/</t>
   </si>
   <si>
+    <t>'0190679007094</t>
+  </si>
+  <si>
     <t>Honey &amp; Vitamin B Sulfate-free Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/honey-vitamin-b/honey-vitamin-b-sulfate-free-shampoo/</t>
   </si>
   <si>
+    <t>'190679007100</t>
+  </si>
+  <si>
     <t>Honey &amp; Vitamin B Sulfate-free Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/honey-vitamin-b/honey-vitamin-b-sulfate-free-conditioner/</t>
   </si>
   <si>
+    <t>'0190679007117</t>
+  </si>
+  <si>
     <t>Sulfate-Free Honey &amp; Vitamin B Shampoo and Conditioner Dual Pack</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/honey-vitamin-b/honey-vitamin-b-shampoo-conditioner-bundle/</t>
   </si>
   <si>
+    <t>'190679007162</t>
+  </si>
+  <si>
     <t>Argan Oil Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/argan-oil/argan-oil-shampoo/</t>
   </si>
   <si>
+    <t>'190679000088</t>
+  </si>
+  <si>
     <t>Argan Oil Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/argan-oil/argan-oil-conditioner/</t>
   </si>
   <si>
+    <t>'00190679000187</t>
+  </si>
+  <si>
     <t>Beach Plastic Argan Oil &amp; Sea Kelp Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/argan-oil/beach-plastic-argan-oil-sea-kelp-shampoo/</t>
   </si>
   <si>
+    <t>'0019067900250</t>
+  </si>
+  <si>
     <t>Beach Plastic Argan Oil &amp; Sea Kelp Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/argan-oil/beach-plastic-argan-oil-sea-kelp-conditioner/</t>
   </si>
   <si>
+    <t>'0019067900246</t>
+  </si>
+  <si>
     <t>Argan Oil Shampoo &amp; Conditioner Bundle</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/argan-oil/argan-oil-shampoo-conditioner-bundle/</t>
   </si>
   <si>
+    <t>'190679004093</t>
+  </si>
+  <si>
     <t>Argan Oil Sulfate-Free Hair Mask</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/argan-oil/argan-oil-sulphate-free-hair-mask/</t>
   </si>
   <si>
+    <t>'0019067900330</t>
+  </si>
+  <si>
     <t>Repairing Hair Mask with Argan Oil &amp; Aloe</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/argan-oil/argan-oil-aloe-sulfate-hair-mask/</t>
   </si>
   <si>
+    <t>'0190679004581</t>
+  </si>
+  <si>
     <t>Repairing Oil Hair Mist with Argan Oil &amp; Aloe</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/aloe/argan-aloe-oil-mist/</t>
   </si>
   <si>
+    <t>'190679004567</t>
+  </si>
+  <si>
     <t>Coconut Milk Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/coconut-milk/coconut-milk-shampoo/</t>
   </si>
   <si>
+    <t>'00190679000019</t>
+  </si>
+  <si>
     <t>Coconut Milk Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/coconut-milk/coconut-milk-conditioner/</t>
   </si>
   <si>
+    <t>'00190679000118</t>
+  </si>
+  <si>
     <t>Beach Plastic Coconut Milk &amp; Sea Kelp Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/coconut-milk/beach-plastic-coconut-milk-sea-kelp-shampoo/</t>
   </si>
   <si>
+    <t>'0019067900392</t>
+  </si>
+  <si>
     <t>Beach Plastic Coconut Milk &amp; Sea Kelp Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/coconut-milk/beach-plastic-coconut-milk-sea-kelp-conditioner/</t>
   </si>
   <si>
+    <t>'19067900011</t>
+  </si>
+  <si>
     <t>Coconut Milk Shampoo &amp; Conditioner Bundle</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/coconut-milk/coconut-milk-shampoo-conditioner-bundle/</t>
   </si>
   <si>
+    <t>'190679002785</t>
+  </si>
+  <si>
     <t>Coconut Milk Sulfate-Free Hair Mask Treatment</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/coconut-milk/coconut-milk-sulfate-free-hair-mask/</t>
   </si>
   <si>
+    <t>'0019067900329</t>
+  </si>
+  <si>
     <t>Coconut Milk &amp; Aloe Vera Sulfate-Free Hair Mask</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/coconut-milk/coconut-milk-aloe-sulfate-free-hair-mask/</t>
   </si>
   <si>
+    <t>'190679004598</t>
+  </si>
+  <si>
     <t>White Grapefruit &amp; Mint Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/white-grapefruit-mint/white-grapefruit-mint-shampoo/</t>
   </si>
   <si>
+    <t>'00190679000026</t>
+  </si>
+  <si>
     <t>White Grapefruit &amp; Mint Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/white-grapefruit-mint/white-grapefruit-mint-conditioner/</t>
   </si>
   <si>
+    <t>'190679000125</t>
+  </si>
+  <si>
     <t>Beach Plastic White Grapefruit &amp; Sea Kelp Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/white-grapefruit-mint/beach-plastic-white-grapefruit-sea-kelp-shampoo/</t>
   </si>
   <si>
+    <t>'190679005892</t>
+  </si>
+  <si>
     <t>Beach Plastic White Grapefruit &amp; Sea Kelp Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/white-grapefruit-mint/beach-plastic-white-grapefruit-sea-kelp-conditioner/</t>
   </si>
   <si>
+    <t>'190679005885</t>
+  </si>
+  <si>
     <t>White Grapefruit &amp; Mint Shampoo &amp; Conditioner Bundle</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/white-grapefruit-mint/white-grapefruit-mint-shampoo-conditioner-bundle/</t>
   </si>
   <si>
+    <t>'190679000453</t>
+  </si>
+  <si>
     <t>White Grapefruit &amp; Mint Dry Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/white-grapefruit-mint/white-grapefruit-mint-dry-shampoo/</t>
   </si>
   <si>
+    <t>'190679000262</t>
+  </si>
+  <si>
     <t>Blue Ginger &amp; Micellar Water Refresh Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/blue-ginger-micellar-water/blue-ginger-micellar-water-refresh-shampoo/</t>
   </si>
   <si>
+    <t>'190679000804</t>
+  </si>
+  <si>
     <t>Blue Ginger Refresh Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/blue-ginger-micellar-water/blue-ginger-refresh-conditioner/</t>
   </si>
   <si>
+    <t>'190679000798</t>
+  </si>
+  <si>
     <t>Blue Ginger Refresh Dry Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/blue-ginger-micellar-water/blue-ginger-refresh-dry-shampoo/</t>
   </si>
   <si>
+    <t>'15957205</t>
+  </si>
+  <si>
     <t>Bourbon Manuka + Honey Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/bourbon-manuka-honey/bourbon-manuka-honey-shampoo/</t>
   </si>
   <si>
+    <t>'190679000842</t>
+  </si>
+  <si>
     <t>Bourbon Manuka + Honey Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/bourbon-manuka-honey/bourbon-manuka-honey-conditioner/</t>
   </si>
   <si>
+    <t>'190679000835</t>
+  </si>
+  <si>
     <t>Arabica Coffee Fruit Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/arabica-coffee-fruit/arabica-coffee-fruit-shampoo/</t>
   </si>
   <si>
+    <t>'190679000040</t>
+  </si>
+  <si>
     <t>Arabica Coffee Fruit for Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/arabica-coffee-fruit/arabica-coffee-fruit-conditioner/</t>
   </si>
   <si>
+    <t>'190679000149</t>
+  </si>
+  <si>
     <t>Arabica Coffee Fruit Volumizing Dry Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/arabica-coffee-fruit/arabica-coffee-fruit-dry-shampoo/</t>
   </si>
   <si>
+    <t>'190679001504</t>
+  </si>
+  <si>
     <t>Cucumber and Green Tea Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/cucumber-green-tea/cucumber-green-tea-shampoo/</t>
   </si>
   <si>
+    <t>'190679000057</t>
+  </si>
+  <si>
     <t>Cucumber and Green Tea Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/cucumber-green-tea/cucumber-green-tea-conditioner/</t>
   </si>
   <si>
+    <t>'190679000156</t>
+  </si>
+  <si>
     <t>Cucumber and Green Tea Dry Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/cucumber-green-tea/cucumber-green-tea-dry-shampoo/</t>
   </si>
   <si>
+    <t>'190679000248</t>
+  </si>
+  <si>
     <t>Black Activated Charcoal Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/charcoal/black-charcoal-shampoo/</t>
   </si>
   <si>
+    <t>'00190679001702</t>
+  </si>
+  <si>
     <t>White Activated Charcoal Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/charcoal/white-charcoal-conditioner/</t>
   </si>
   <si>
+    <t>'00190679001719</t>
+  </si>
+  <si>
     <t>Rosemary &amp; Herbs Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/rosemary-herbs/rosemary-herbs-shampoo/</t>
   </si>
   <si>
+    <t>'190679000095</t>
+  </si>
+  <si>
     <t>Rosemary &amp; Herbs Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/rosemary-herbs/rosemary-herbs-conditioner/</t>
   </si>
   <si>
+    <t>'190679000194</t>
+  </si>
+  <si>
     <t>White Strawberry &amp; Sweet Mint Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/white-strawberry-sweet-mint/white-strawberry-sweet-mint-shampoo/</t>
   </si>
   <si>
+    <t>'190679000033</t>
+  </si>
+  <si>
     <t>White Strawberry &amp; Sweet Mint Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/white-strawberry-sweet-mint/white-strawberry-sweet-mint-conditioner/</t>
   </si>
   <si>
+    <t>'190679000132</t>
+  </si>
+  <si>
     <t>White Strawberry &amp; Sweet Mint Dry Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/white-strawberry-sweet-mint/white-strawberry-sweet-mint-dry-shampoo/</t>
   </si>
   <si>
+    <t>'10967978</t>
+  </si>
+  <si>
     <t>Passion Flower &amp; Rice Milk Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/passion-flower/passion-flower-rice-milk-shampoo/</t>
   </si>
   <si>
+    <t>'190679000071</t>
+  </si>
+  <si>
     <t>Passion Flower &amp; Rice Milk Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/passion-flower/passion-flower-rice-milk-conditioner/</t>
   </si>
   <si>
+    <t>'190679000170</t>
+  </si>
+  <si>
     <t>Smooth Rose Hips Hair Smoothing Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/smooth-rose-hips/smooth-rose-hips-shampoo/</t>
   </si>
   <si>
+    <t>'0190679005359</t>
+  </si>
+  <si>
     <t>Smooth Rose Hips Hair Smoothing Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/smooth-rose-hips/smooth-rose-hips-conditioner/</t>
   </si>
   <si>
+    <t>'0190679005366</t>
+  </si>
+  <si>
     <t>Smooth Rose Hips Shampoo &amp; Conditioner Bundle</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/smooth-rose-hips/smooth-rose-hips-shampoo-conditioner-bundle/</t>
   </si>
   <si>
+    <t>'190679005533</t>
+  </si>
+  <si>
     <t>Shine Chamomile Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/shine-chamomile/shine-chamomile-shampoo/</t>
   </si>
   <si>
+    <t>'190679005335</t>
+  </si>
+  <si>
     <t>Shine Chamomile Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/shine-chamomile/shine-chamomile-conditioner/</t>
   </si>
   <si>
+    <t>'190679005342</t>
+  </si>
+  <si>
     <t>Tea Tree Oil Clarifying Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/tea-tree/tea-tree-shampoo/</t>
   </si>
   <si>
+    <t>'190679006769</t>
+  </si>
+  <si>
     <t>Tea Tree Oil Purifying Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/tea-tree/tea-tree-conditioner/</t>
   </si>
   <si>
+    <t>'190679006776</t>
+  </si>
+  <si>
     <t>Tea Up 3-in-1 Detox, Volume, Shine Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/tea-up/tea-up-3-in-1-shampoo/</t>
   </si>
   <si>
+    <t>'190679005915</t>
+  </si>
+  <si>
     <t>Tea Up 3-in-1 Detox, Volume, Shine Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/tea-up/tea-up-3-in-1-conditioner/</t>
   </si>
   <si>
+    <t>'190679005922</t>
+  </si>
+  <si>
     <t>Hello Hydration Shampoo Deep Moisture for Hair</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/hello-hydration/hello-hydration-shampoo/</t>
   </si>
   <si>
+    <t>'190679004758</t>
+  </si>
+  <si>
     <t>Hello Hydration Deeply Moisturizing Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/hello-hydration/hello-hydration-conditioner/</t>
   </si>
   <si>
+    <t>'0019067900477</t>
+  </si>
+  <si>
     <t>Hello Hydration 2 in 1 Shampoo &amp; Conditioner, Moisture for Hair</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/hello-hydration/hello-hydration-2-in-1/</t>
   </si>
   <si>
+    <t>'190679004765</t>
+  </si>
+  <si>
     <t>Hello Hydration Shampoo &amp; Conditioner Bundle Pack</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/hello-hydration/hello-hydration-shampoo-conditioner-bundle/</t>
   </si>
   <si>
+    <t>'190679005540</t>
+  </si>
+  <si>
     <t>Body Envy Volumizing Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/body-envy/body-envy-shampoo/</t>
   </si>
   <si>
+    <t>'190679004840</t>
+  </si>
+  <si>
     <t>Body Envy Volumizing Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/body-envy/body-envy-conditioner-for-volume/</t>
   </si>
   <si>
+    <t>'190679004857</t>
+  </si>
+  <si>
     <t>Body Envy Volumizing Hairspray</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/body-envy/body-envy-volumizing-hairspray/</t>
   </si>
   <si>
+    <t>'381519019593</t>
+  </si>
+  <si>
     <t>Body Envy Volumizing Mousse</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/body-envy/body-envy-volumizing-mousse/</t>
   </si>
   <si>
+    <t>'381519019579</t>
+  </si>
+  <si>
     <t>Color Me Happy Shampoo for Colored Hair</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/color-me-happy/color-me-happy-shampoo-for-colored-hair/</t>
   </si>
   <si>
+    <t>'190679004918</t>
+  </si>
+  <si>
     <t>Color Me Happy Conditioner for Colored Hair</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/color-me-happy/color-me-happy-conditioner-for-colored-hair/</t>
   </si>
   <si>
+    <t>'00190679004925</t>
+  </si>
+  <si>
     <t>Color Me Happy Shampoo &amp; Conditioner Bundle Pack</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/color-me-happy/color-me-happy-shampoo-conditioner-bundle/</t>
   </si>
   <si>
+    <t>'22727315</t>
+  </si>
+  <si>
     <t>Long Term Relationship Shampoo Damage Repair for Hair</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/long-term-relationship/long-term-relationship-shampoo/</t>
   </si>
   <si>
+    <t>'190679005014</t>
+  </si>
+  <si>
     <t>Long Term Relationship Conditioner for Long Hair</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/long-term-relationship/long-term-relationship-conditioner/</t>
   </si>
   <si>
+    <t>'190679005021</t>
+  </si>
+  <si>
     <t>Totally Twisted Shampoo Defined Curls</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/totally-twisted/totally-twisted-shampoo-for-defined-curls/</t>
   </si>
   <si>
+    <t>'190679004970</t>
+  </si>
+  <si>
     <t>Totally Twisted Hair Conditioner for Defined Curls</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/totally-twisted/totally-twisted-conditioner-for-defined-curls/</t>
   </si>
   <si>
+    <t>'190679004987</t>
+  </si>
+  <si>
     <t>Totally Twisted Curl Scrunching Gel</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/totally-twisted/totally-twisted-curl-scrunching-gel/</t>
   </si>
   <si>
+    <t>'381519019654</t>
+  </si>
+  <si>
     <t>Totally Twisted Curl Boosting Hair Mousse</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/totally-twisted/totally-twisted-curl-boosting-hair-moose/</t>
   </si>
   <si>
+    <t>'381519019647</t>
+  </si>
+  <si>
     <t>Totally Twisted Curl Boosting Hair Mousse Bundle</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/totally-twisted/totally-twisted-curl-boosting-hair-moose-bundle/</t>
   </si>
   <si>
+    <t>'381519055287</t>
+  </si>
+  <si>
     <t>Moroccan My Shine Shampoo Restore Shine for Hair</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/moroccan-shine/moroccan-shine-shampoo/</t>
   </si>
   <si>
+    <t>'190679005052</t>
+  </si>
+  <si>
     <t>Moroccan My Shine Hair Conditioner for Restored Radiance</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/moroccan-shine/moroccan-shine-conditioner/</t>
   </si>
   <si>
+    <t>'0190679005069</t>
+  </si>
+  <si>
     <t>Tousle Me Softly Tousling Spray Hair Gel</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/tousle-me-softly/tousle-me-softly-gel/</t>
   </si>
   <si>
+    <t>'381519039546</t>
+  </si>
+  <si>
     <t>Tousle Me Softly Tousling Hair Mousse</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/tousle-me-softly/tousle-me-softly-mousse/</t>
   </si>
   <si>
+    <t>'381519039300</t>
+  </si>
+  <si>
     <t>Daily Detox Volume Orange &amp; Mint Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/daily-detox-volume-orange-mint/daily-detox-volume-orange-mint-shampoo/</t>
   </si>
   <si>
+    <t>'190679005113</t>
+  </si>
+  <si>
     <t>Daily Detox Orange &amp; Mint Volumizing Hair Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/daily-detox-volume-orange-mint/daily-detox-volume-orange-mint-conditioner/</t>
   </si>
   <si>
+    <t>'0019067900512</t>
+  </si>
+  <si>
     <t>Daily Detox Quench Herbs &amp; Mint Shampoo</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/daily-detox-quench-green-herbs-mint/daily-detox-quench-herbs-mint-shampoo/</t>
   </si>
   <si>
+    <t>'190679005090</t>
+  </si>
+  <si>
     <t>Daily Detox Quench Herbs &amp; Mint Hydrating Conditioner</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/daily-detox-quench-green-herbs-mint/daily-detox-quench-green-herbs-mint-conditioner/</t>
   </si>
   <si>
+    <t>'190679005106</t>
+  </si>
+  <si>
     <t>Set Me Up Strong Hold Spray Hair Gel</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/set-me-up/set-me-up-spray-gel/</t>
   </si>
   <si>
+    <t>'381519041655</t>
+  </si>
+  <si>
     <t>Set Me Up Hair Mousse for Frizz Control</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/set-me-up/set-me-up-mousse/</t>
   </si>
   <si>
+    <t>'381519019685</t>
+  </si>
+  <si>
     <t>Set Me Up Hold Me Softly Non-aerosol Hairspray</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/set-me-up/set-me-up-non-aerosol-hairspray/</t>
   </si>
   <si>
+    <t>'381519019722</t>
+  </si>
+  <si>
     <t>Set Me Up Beautiful Bold Hold Hairspray</t>
   </si>
   <si>
     <t>https://herbalessences.com/en-us/our-products/set-me-up/set-me-up-hairspray/</t>
+  </si>
+  <si>
+    <t>'381519019739</t>
   </si>
 </sst>
 </file>
@@ -656,7 +950,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -671,7 +965,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -686,23 +980,23 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -719,7 +1013,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -736,7 +1030,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -753,7 +1047,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -770,7 +1064,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -787,7 +1081,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -804,7 +1098,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -821,7 +1115,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -838,7 +1132,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -855,7 +1149,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -872,7 +1166,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -889,7 +1183,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -906,7 +1200,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -923,7 +1217,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -940,7 +1234,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -957,7 +1251,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -974,7 +1268,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -991,7 +1285,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1008,7 +1302,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1025,7 +1319,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1042,7 +1336,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1059,7 +1353,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1076,7 +1370,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1093,7 +1387,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1110,7 +1404,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1127,7 +1421,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1144,7 +1438,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1161,7 +1455,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1178,7 +1472,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1195,7 +1489,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1212,7 +1506,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1229,7 +1523,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1246,7 +1540,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1263,7 +1557,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1280,7 +1574,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1297,7 +1591,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1314,7 +1608,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1331,7 +1625,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1348,7 +1642,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1365,7 +1659,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1382,7 +1676,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1399,7 +1693,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1416,7 +1710,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1433,7 +1727,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1450,7 +1744,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1467,7 +1761,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1484,7 +1778,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1501,7 +1795,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1518,7 +1812,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1535,7 +1829,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1552,7 +1846,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1569,7 +1863,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1586,7 +1880,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1603,7 +1897,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1620,7 +1914,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1637,7 +1931,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1654,7 +1948,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1671,7 +1965,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1688,7 +1982,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1705,7 +1999,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1722,7 +2016,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1739,7 +2033,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1756,7 +2050,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1773,7 +2067,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1790,7 +2084,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1807,7 +2101,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1824,7 +2118,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1841,7 +2135,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1858,7 +2152,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1875,7 +2169,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1892,7 +2186,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1909,7 +2203,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1926,7 +2220,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1943,7 +2237,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1960,7 +2254,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1977,7 +2271,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1994,7 +2288,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2011,7 +2305,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2028,7 +2322,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2045,7 +2339,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2062,7 +2356,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2079,7 +2373,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2096,7 +2390,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2113,7 +2407,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2130,7 +2424,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2147,7 +2441,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2164,7 +2458,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2181,7 +2475,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2198,7 +2492,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2215,7 +2509,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2232,7 +2526,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2249,7 +2543,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2266,7 +2560,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2283,7 +2577,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2300,7 +2594,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2317,7 +2611,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2334,7 +2628,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2351,7 +2645,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644794308" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1644804330" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2374,7 +2668,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1644794308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1644804330" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2396,7 +2690,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1644794308"/>
+          <pm:border xmlns:pm="smNativeData" id="1644804330"/>
         </ext>
       </extLst>
     </border>
@@ -2415,7 +2709,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1644794308"/>
+          <pm:border xmlns:pm="smNativeData" id="1644804330"/>
         </ext>
       </extLst>
     </border>
@@ -2735,7 +3029,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1644794308" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1644804330" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -3005,7 +3299,7 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="13" defaultColWidth="14.432432" defaultRowHeight="15.75" customHeight="1"/>
@@ -3041,11 +3335,11 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>779532</v>
@@ -3054,16 +3348,16 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>779531</v>
@@ -3072,16 +3366,16 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>462741</v>
@@ -3090,16 +3384,16 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>462742</v>
@@ -3108,16 +3402,16 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>462732</v>
@@ -3126,16 +3420,16 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>462734</v>
@@ -3144,16 +3438,16 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1032330</v>
@@ -3162,16 +3456,16 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>462738</v>
@@ -3180,16 +3474,16 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>462739</v>
@@ -3198,16 +3492,16 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>462740</v>
@@ -3216,16 +3510,16 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>462730</v>
@@ -3234,16 +3528,16 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>462743</v>
@@ -3252,16 +3546,16 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>462708</v>
@@ -3270,16 +3564,16 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>794194</v>
@@ -3288,16 +3582,16 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>794188</v>
@@ -3306,16 +3600,16 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>776662</v>
@@ -3324,16 +3618,16 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>794186</v>
@@ -3342,16 +3636,16 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>865025</v>
@@ -3360,16 +3654,16 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>389135</v>
@@ -3378,16 +3672,16 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>389123</v>
@@ -3396,16 +3690,16 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>21</v>
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>462744</v>
@@ -3414,16 +3708,16 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>22</v>
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>462745</v>
@@ -3432,16 +3726,16 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>23</v>
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>865017</v>
@@ -3450,16 +3744,16 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>24</v>
+        <v>77</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>776663</v>
@@ -3468,16 +3762,16 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>25</v>
+        <v>80</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>462729</v>
@@ -3486,16 +3780,16 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>26</v>
+        <v>83</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>462727</v>
@@ -3504,16 +3798,16 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>27</v>
+        <v>86</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>389101</v>
@@ -3522,16 +3816,16 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>28</v>
+        <v>89</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>389092</v>
@@ -3540,16 +3834,16 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>29</v>
+        <v>92</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>462724</v>
@@ -3558,16 +3852,16 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>30</v>
+        <v>95</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>462719</v>
@@ -3576,16 +3870,16 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>31</v>
+        <v>98</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>434024</v>
@@ -3594,16 +3888,16 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>32</v>
+        <v>101</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>776664</v>
@@ -3612,16 +3906,16 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>33</v>
+        <v>104</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>462728</v>
@@ -3630,16 +3924,16 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>34</v>
+        <v>107</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>389073</v>
@@ -3648,16 +3942,16 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>35</v>
+        <v>110</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>389065</v>
@@ -3666,16 +3960,16 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>36</v>
+        <v>113</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>1023721</v>
@@ -3684,16 +3978,16 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>37</v>
+        <v>116</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>776643</v>
@@ -3702,16 +3996,16 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>38</v>
+        <v>119</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>395908</v>
@@ -3720,16 +4014,16 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>39</v>
+        <v>122</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>389038</v>
@@ -3738,16 +4032,16 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>40</v>
+        <v>125</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>389086</v>
@@ -3756,16 +4050,16 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>41</v>
+        <v>128</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>389081</v>
@@ -3774,16 +4068,16 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>42</v>
+        <v>131</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>462715</v>
@@ -3792,16 +4086,16 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>43</v>
+        <v>134</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>462691</v>
@@ -3810,16 +4104,16 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>44</v>
+        <v>137</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>462671</v>
@@ -3828,16 +4122,16 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>45</v>
+        <v>140</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>389119</v>
@@ -3846,16 +4140,16 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="B47" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>46</v>
+        <v>143</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>389108</v>
@@ -3864,16 +4158,16 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>47</v>
+        <v>146</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>776650</v>
@@ -3882,16 +4176,16 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>48</v>
+        <v>149</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>389030</v>
@@ -3900,16 +4194,16 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>49</v>
+        <v>152</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>389023</v>
@@ -3918,16 +4212,16 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>50</v>
+        <v>155</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>389048</v>
@@ -3936,16 +4230,16 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>51</v>
+        <v>158</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>389062</v>
@@ -3954,16 +4248,16 @@
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>52</v>
+        <v>161</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>389059</v>
@@ -3972,16 +4266,16 @@
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="B54" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>53</v>
+        <v>164</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>462704</v>
@@ -3990,16 +4284,16 @@
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>54</v>
+        <v>167</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>462677</v>
@@ -4008,16 +4302,16 @@
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>55</v>
+        <v>170</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>462721</v>
@@ -4026,16 +4320,16 @@
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>56</v>
+        <v>173</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>462720</v>
@@ -4044,16 +4338,16 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="B58" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>57</v>
+        <v>176</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>462711</v>
@@ -4062,16 +4356,16 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>58</v>
+        <v>179</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>462696</v>
@@ -4080,16 +4374,16 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>59</v>
+        <v>182</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>462700</v>
@@ -4098,16 +4392,16 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="B61" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>60</v>
+        <v>185</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>389012</v>
@@ -4116,16 +4410,16 @@
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="B62" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>61</v>
+        <v>188</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>389051</v>
@@ -4134,16 +4428,16 @@
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>62</v>
+        <v>191</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>1023722</v>
@@ -4152,16 +4446,16 @@
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="B64" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>63</v>
+        <v>194</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>794169</v>
@@ -4170,16 +4464,16 @@
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="B65" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="2" t="n">
-        <v>64</v>
+        <v>197</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>462736</v>
@@ -4188,16 +4482,16 @@
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="B66" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>65</v>
+        <v>200</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>794198</v>
@@ -4206,16 +4500,16 @@
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="B67" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>66</v>
+        <v>203</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>794190</v>
@@ -4224,16 +4518,16 @@
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="B68" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>67</v>
+        <v>206</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>865027</v>
@@ -4242,16 +4536,16 @@
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="B69" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>68</v>
+        <v>209</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>865028</v>
@@ -4260,16 +4554,16 @@
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="B70" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="2" t="n">
-        <v>69</v>
+        <v>212</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>462757</v>
@@ -4278,16 +4572,16 @@
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="B71" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>70</v>
+        <v>215</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>467893</v>
@@ -4296,16 +4590,16 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="B72" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" s="2" t="n">
-        <v>71</v>
+        <v>218</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>462803</v>
@@ -4314,16 +4608,16 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="B73" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" s="2" t="n">
-        <v>72</v>
+        <v>221</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>462758</v>
@@ -4332,16 +4626,16 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="B74" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" s="2" t="n">
-        <v>73</v>
+        <v>224</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>462810</v>
@@ -4350,16 +4644,16 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="B75" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" s="2" t="n">
-        <v>74</v>
+        <v>227</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>462819</v>
@@ -4368,16 +4662,16 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="B76" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76" s="2" t="n">
-        <v>75</v>
+        <v>230</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>462833</v>
@@ -4386,16 +4680,16 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="B77" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" s="2" t="n">
-        <v>76</v>
+        <v>233</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>462685</v>
@@ -4404,16 +4698,16 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="B78" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" s="2" t="n">
-        <v>77</v>
+        <v>236</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>776608</v>
@@ -4422,16 +4716,16 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="B79" s="81" t="s">
-        <v>162</v>
-      </c>
-      <c r="C79" s="2" t="n">
-        <v>78</v>
+        <v>239</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>776618</v>
@@ -4440,16 +4734,16 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="B80" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>79</v>
+        <v>242</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>776633</v>
@@ -4458,16 +4752,16 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="B81" s="83" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>80</v>
+        <v>245</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>794183</v>
@@ -4476,16 +4770,16 @@
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="B82" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>81</v>
+        <v>248</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>794182</v>
@@ -4494,16 +4788,16 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="B83" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>82</v>
+        <v>251</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>776626</v>
@@ -4512,16 +4806,16 @@
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="B84" s="86" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>83</v>
+        <v>254</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>776665</v>
@@ -4530,16 +4824,16 @@
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="B85" s="87" t="s">
-        <v>174</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>84</v>
+        <v>257</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>389431</v>
@@ -4548,16 +4842,16 @@
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="B86" s="88" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>85</v>
+        <v>260</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>776606</v>
@@ -4566,16 +4860,16 @@
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="B87" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>86</v>
+        <v>263</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>776590</v>
@@ -4584,16 +4878,16 @@
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="B88" s="90" t="s">
-        <v>180</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>87</v>
+        <v>266</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>776669</v>
@@ -4602,16 +4896,16 @@
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="B89" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>88</v>
+        <v>269</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>776644</v>
@@ -4620,16 +4914,16 @@
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="B90" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>89</v>
+        <v>272</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>389423</v>
@@ -4638,16 +4932,16 @@
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="B91" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>90</v>
+        <v>275</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>776592</v>
@@ -4656,16 +4950,16 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="B92" s="94" t="s">
-        <v>188</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>91</v>
+        <v>278</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>776671</v>
@@ -4674,16 +4968,16 @@
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="B93" s="95" t="s">
-        <v>190</v>
-      </c>
-      <c r="C93" s="2" t="n">
-        <v>92</v>
+        <v>281</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>776670</v>
@@ -4692,16 +4986,16 @@
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="B94" s="96" t="s">
-        <v>192</v>
-      </c>
-      <c r="C94" s="2" t="n">
-        <v>93</v>
+        <v>284</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>794202</v>
@@ -4710,16 +5004,16 @@
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="B95" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>94</v>
+        <v>287</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>794201</v>
@@ -4728,16 +5022,16 @@
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="B96" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>95</v>
+        <v>290</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>1023727</v>
@@ -4746,16 +5040,16 @@
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="B97" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>96</v>
+        <v>293</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>794181</v>
@@ -4764,16 +5058,16 @@
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="B98" s="100" t="s">
-        <v>200</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>97</v>
+        <v>296</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E98" s="2" t="n">
         <v>794200</v>
@@ -4782,16 +5076,16 @@
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="B99" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>98</v>
+        <v>299</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E99" s="2" t="n">
         <v>794177</v>
@@ -4902,7 +5196,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1644794308" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1644804330" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4911,14 +5205,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1644794308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1644794308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1644804330" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1644804330" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1644794308" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1644804330" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
